--- a/output/fit_clients/fit_round_259.xlsx
+++ b/output/fit_clients/fit_round_259.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2246601826.761827</v>
+        <v>1677882525.818127</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08081582213716866</v>
+        <v>0.1037368035009812</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02740094139931359</v>
+        <v>0.03545342583505081</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1123300942.146661</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2459159660.576066</v>
+        <v>1673230906.79307</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1232979227156039</v>
+        <v>0.1174803084807938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04951600966406411</v>
+        <v>0.03627333829662409</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1229579941.450995</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5019665089.659714</v>
+        <v>3335946512.939812</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1528319434987714</v>
+        <v>0.1311741433450091</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03423896128588587</v>
+        <v>0.03489025974810111</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>93</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2509832631.246478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3633029394.819669</v>
+        <v>3847766383.977837</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09635800670416281</v>
+        <v>0.076805213651404</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04916976522169707</v>
+        <v>0.04910411850761189</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1816514725.350698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1755399967.076295</v>
+        <v>2155564190.404684</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1135130901449537</v>
+        <v>0.146831530328263</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04604329821382837</v>
+        <v>0.03480263345437039</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>42</v>
-      </c>
-      <c r="J6" t="n">
-        <v>877700039.6004149</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3043499870.760608</v>
+        <v>3081021386.344673</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07829665087884122</v>
+        <v>0.07608002518437817</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04455522321957852</v>
+        <v>0.04270920922664205</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>81</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1521749896.132805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3037249514.448396</v>
+        <v>2439315351.395546</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1657533402783846</v>
+        <v>0.17626421601523</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02798621883974211</v>
+        <v>0.02667978089281005</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>82</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1518624818.540224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1885000145.33397</v>
+        <v>2144681375.590424</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1708296006596507</v>
+        <v>0.1892691916392057</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02563058450485017</v>
+        <v>0.03706255008242246</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>942500115.2179503</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3726192747.667779</v>
+        <v>4621593527.882479</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1738292841598842</v>
+        <v>0.1807757238774937</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04636975461380038</v>
+        <v>0.0444230478374241</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>109</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1863096374.543511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3008774279.273062</v>
+        <v>3699347851.631419</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1428697976589229</v>
+        <v>0.1749832755042524</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03137883099921425</v>
+        <v>0.03833018350688847</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>107</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1504387083.167963</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2491633766.98383</v>
+        <v>3263934949.818702</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1470702513533008</v>
+        <v>0.1924072576512219</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04948567095997614</v>
+        <v>0.04269180395758215</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>87</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1245816854.947292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4576834956.168643</v>
+        <v>3502686351.534064</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06868494835198646</v>
+        <v>0.06864850293427997</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02233786440046727</v>
+        <v>0.03126049251172344</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>87</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2288417503.711565</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3502073104.503435</v>
+        <v>2779826241.752468</v>
       </c>
       <c r="F14" t="n">
-        <v>0.150337459563032</v>
+        <v>0.1324986511556227</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0314750695276609</v>
+        <v>0.0409675541386678</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1751036550.328304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1156193585.851714</v>
+        <v>1825804487.946914</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1024674376084253</v>
+        <v>0.07460045820935733</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03107065142861417</v>
+        <v>0.04224884520420437</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>578096800.4709673</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2603405775.958204</v>
+        <v>2708305167.201993</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07221302917877984</v>
+        <v>0.08765047295743597</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04720111836512891</v>
+        <v>0.04654831957035582</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>48</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1301702909.554715</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5150325159.233892</v>
+        <v>4492252364.477757</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1111022455633526</v>
+        <v>0.1330458228796443</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03312658197916937</v>
+        <v>0.04504194112573884</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>76</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2575162557.30092</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3540727486.268766</v>
+        <v>3165063181.86967</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1224883239264131</v>
+        <v>0.15152519583608</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02543485661377755</v>
+        <v>0.03138176342551251</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>85</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1770363734.200915</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>911061980.1086651</v>
+        <v>1291515375.784426</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1254223779438741</v>
+        <v>0.1378476138410198</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02125045206456658</v>
+        <v>0.0230591692237409</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>455530997.6212386</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2440586157.421513</v>
+        <v>2069174067.107359</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1161609118372635</v>
+        <v>0.1111720798492425</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02839138590974376</v>
+        <v>0.02567166455220199</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>39</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1220293058.121449</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2015211742.477981</v>
+        <v>1819421722.737614</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08610512409549306</v>
+        <v>0.09222683071399405</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03599215743504954</v>
+        <v>0.0353997617038462</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1007605905.704492</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3483597899.866801</v>
+        <v>3487405097.690156</v>
       </c>
       <c r="F22" t="n">
-        <v>0.100375673934059</v>
+        <v>0.14151387518337</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05389967102345723</v>
+        <v>0.03824585143255562</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>71</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1741798982.496395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1530041815.598146</v>
+        <v>1507918696.034095</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1596568580895472</v>
+        <v>0.1523822619485291</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03979610156208003</v>
+        <v>0.04848671300013042</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>765020888.663595</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3105177016.251084</v>
+        <v>3464073857.39199</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1113880403285476</v>
+        <v>0.1210674014462366</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03328566099477005</v>
+        <v>0.02538692603562509</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>76</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1552588536.283375</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1255598811.687222</v>
+        <v>1156054858.518436</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09575812097905007</v>
+        <v>0.1052274887882486</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02405741318954364</v>
+        <v>0.02168810831396671</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>627799411.0322952</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1226354461.552925</v>
+        <v>1351520845.338122</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09401706323736599</v>
+        <v>0.07710284471877681</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03187677666375927</v>
+        <v>0.03444913865338204</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>613177258.2609953</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4315819155.534053</v>
+        <v>3365928117.100854</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1198728707233755</v>
+        <v>0.1515789464662123</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02355659393976348</v>
+        <v>0.02481390154249952</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>63</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2157909572.254827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3385381782.865959</v>
+        <v>2684123113.0669</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1398190443838526</v>
+        <v>0.1106383303165144</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03956414890887092</v>
+        <v>0.03392535404410088</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>84</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1692690936.08928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5408364218.75052</v>
+        <v>4224272786.548596</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09732780048433708</v>
+        <v>0.1459545848339747</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03248292581093172</v>
+        <v>0.03920444647948743</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>114</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2704182028.604403</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1508179003.731758</v>
+        <v>2383140369.946957</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09239267164606675</v>
+        <v>0.1156463707616031</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02470475548373305</v>
+        <v>0.04011529794994031</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>754089483.3364598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1371711723.658955</v>
+        <v>982596225.3689488</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07133876826493639</v>
+        <v>0.08302302731299908</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03593031999900861</v>
+        <v>0.03531900274322548</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>685855772.8707194</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1738428874.178651</v>
+        <v>1689667759.091315</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1032204659996935</v>
+        <v>0.0804194936950995</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03547667565357019</v>
+        <v>0.03078103541451341</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>869214554.83192</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1993228939.564267</v>
+        <v>2821319972.609267</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1397056050457236</v>
+        <v>0.1745441989690117</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05647845657924859</v>
+        <v>0.03757407560552245</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>79</v>
-      </c>
-      <c r="J33" t="n">
-        <v>996614551.1256956</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1576045261.355689</v>
+        <v>1172322888.487057</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1095183393933545</v>
+        <v>0.1161179729165566</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02011529201961817</v>
+        <v>0.02500402254741307</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>788022574.0581253</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>835323991.6664939</v>
+        <v>1280342861.965064</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08982684900304524</v>
+        <v>0.1169703484130512</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03375400766611213</v>
+        <v>0.03901261969526514</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>417662050.5059987</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2275580868.68797</v>
+        <v>2404317762.893853</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1142124985019816</v>
+        <v>0.1215769426918084</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02355407665912476</v>
+        <v>0.02882959914194588</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>64</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1137790474.306463</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2947541965.304704</v>
+        <v>1777273630.257979</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1102472972138112</v>
+        <v>0.09170803886665821</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02819480972011816</v>
+        <v>0.02850281855740443</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>66</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1473771140.274813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1983956661.179818</v>
+        <v>1944800542.289386</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1188548070938395</v>
+        <v>0.1195236735361771</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02423885987505861</v>
+        <v>0.02771187774613988</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>991978311.479229</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1477330276.207165</v>
+        <v>1505721593.296512</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1346936410566562</v>
+        <v>0.1441691177353166</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02321037600420527</v>
+        <v>0.02506607367744869</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>738665211.9828217</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1530506045.523654</v>
+        <v>1625851874.855683</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1505536058915675</v>
+        <v>0.1607707280904692</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05373006716747045</v>
+        <v>0.05424491431516636</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>765252981.326121</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2900886776.997581</v>
+        <v>2134735106.731781</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1504193374563342</v>
+        <v>0.1498767039149873</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04648562714549608</v>
+        <v>0.03766235495833559</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>62</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1450443374.489347</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3224963289.537773</v>
+        <v>3640324208.915052</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08922592264661036</v>
+        <v>0.08987760927433568</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03925963638385208</v>
+        <v>0.02891927163232217</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1612481620.675598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3050967125.951023</v>
+        <v>2344728821.896674</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1883033865250825</v>
+        <v>0.1764762455788104</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02040784764621801</v>
+        <v>0.01787632426953478</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>92</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1525483556.213454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1946968051.173126</v>
+        <v>1465729304.577048</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09500850117749558</v>
+        <v>0.1023986832594648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.031350192287011</v>
+        <v>0.03380836202228892</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>973484121.3308837</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2269503657.070074</v>
+        <v>2076858637.665521</v>
       </c>
       <c r="F45" t="n">
-        <v>0.134899447550423</v>
+        <v>0.124358358658967</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04941856890569542</v>
+        <v>0.04861049427038545</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1134751846.545607</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5629092688.307254</v>
+        <v>4077328432.091689</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1759077782328942</v>
+        <v>0.1113187917545611</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05816149454962042</v>
+        <v>0.05187747335325269</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>92</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2814546406.989175</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3614655685.061806</v>
+        <v>3248240465.773821</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1602825520299422</v>
+        <v>0.1261412374930092</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04878141070715115</v>
+        <v>0.04549390059695566</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>69</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1807327819.862183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3250219397.521032</v>
+        <v>3850291056.292961</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1067173021571271</v>
+        <v>0.1045195990875101</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03394422183324647</v>
+        <v>0.02826029797368663</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>87</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1625109776.72695</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1802240445.095687</v>
+        <v>1906224707.210859</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1400625909349449</v>
+        <v>0.1279343295375137</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03869246225830048</v>
+        <v>0.03460331100303488</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>901120207.5662533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4105430199.946132</v>
+        <v>2802334087.814266</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1090766573425384</v>
+        <v>0.1155287491657882</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04895381839099319</v>
+        <v>0.04005680259094601</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>88</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2052715081.141255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1431763895.04713</v>
+        <v>968790950.6682312</v>
       </c>
       <c r="F51" t="n">
-        <v>0.150086928024914</v>
+        <v>0.178689519510188</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03940873690214341</v>
+        <v>0.0347290574552321</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>715881961.5130613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4145100682.8367</v>
+        <v>5254723689.296151</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1160392275799537</v>
+        <v>0.08902589743819862</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04187929019729243</v>
+        <v>0.0424818481051962</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>107</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2072550389.350307</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2887393077.560357</v>
+        <v>3200054940.762707</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1525222773191519</v>
+        <v>0.1380256090470099</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02848886871796066</v>
+        <v>0.0283448357711493</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>74</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1443696578.95149</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4545845226.444286</v>
+        <v>3873701201.43628</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1374334737914499</v>
+        <v>0.1686178603183632</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03478350452953731</v>
+        <v>0.04869142696794818</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>84</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2272922720.164883</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3339764806.764014</v>
+        <v>4978635185.893066</v>
       </c>
       <c r="F55" t="n">
-        <v>0.203265997982355</v>
+        <v>0.1716904200509862</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03248052871857515</v>
+        <v>0.03200708838227229</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1669882349.146468</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1176886920.244528</v>
+        <v>1642148799.97434</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1164233375670602</v>
+        <v>0.137755899379195</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05602351494391249</v>
+        <v>0.04687772227639678</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>588443550.222404</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4133546700.428536</v>
+        <v>4559567498.685125</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1369282675052816</v>
+        <v>0.1492953964442123</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02766701900636637</v>
+        <v>0.02334131223743074</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>82</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2066773449.791364</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1434704128.078884</v>
+        <v>1675446309.930954</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1531469841270835</v>
+        <v>0.1446017440094141</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03222353841012011</v>
+        <v>0.0390243883839452</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>717352101.1399099</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3322770210.127834</v>
+        <v>4369490848.133031</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08645555212179153</v>
+        <v>0.08227093703811265</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03836191802044481</v>
+        <v>0.03478434275517589</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1661385113.654021</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3270247174.407622</v>
+        <v>2781709725.946559</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1328532484775027</v>
+        <v>0.1994367153549531</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02300714196752246</v>
+        <v>0.03247328604879583</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>80</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1635123685.895667</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2102165028.017188</v>
+        <v>3052047212.902287</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1742199696245825</v>
+        <v>0.1315541283235942</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0229507412570444</v>
+        <v>0.02080385325490383</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>90</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1051082579.140651</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1487899924.224415</v>
+        <v>1408411044.516624</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1467333758195536</v>
+        <v>0.1290797587491781</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04213978818291133</v>
+        <v>0.04000886243197059</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>743949943.3155347</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5214033739.570214</v>
+        <v>5393982036.095177</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09049833262764567</v>
+        <v>0.07383657455257855</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0371549774132237</v>
+        <v>0.04442777247405395</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>74</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2607016877.97702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4334863154.345632</v>
+        <v>4036415670.256723</v>
       </c>
       <c r="F64" t="n">
-        <v>0.188917157585793</v>
+        <v>0.1436638758476441</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02343317715193605</v>
+        <v>0.03420248707341635</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>80</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2167431636.585299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5316710286.968323</v>
+        <v>5197898565.215111</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1708470415224412</v>
+        <v>0.1117308683264271</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02149427889509117</v>
+        <v>0.02129924426856094</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>93</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2658355083.489293</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4802551479.343987</v>
+        <v>4525817420.813408</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1267804610718764</v>
+        <v>0.1332677222931052</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04428951368095576</v>
+        <v>0.0444064193555978</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>75</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2401275756.231958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3071610202.724389</v>
+        <v>2658230151.290855</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07309099453970044</v>
+        <v>0.07975361811786211</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04216252653463191</v>
+        <v>0.04591702384729219</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1535805113.591661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5163061195.03273</v>
+        <v>3814869336.638227</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1126292993002668</v>
+        <v>0.1532602236243941</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05074653478178091</v>
+        <v>0.03161027769098197</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2581530663.788996</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2040375742.328663</v>
+        <v>2156725934.7121</v>
       </c>
       <c r="F69" t="n">
-        <v>0.130110546364941</v>
+        <v>0.1443348720229888</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04225156547852786</v>
+        <v>0.04243910367160566</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1020187881.312086</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2282332692.30654</v>
+        <v>2344914988.914778</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07406747468616215</v>
+        <v>0.09561522040240533</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04406627204949024</v>
+        <v>0.04681955208205388</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>74</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1141166276.502228</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4678509960.438928</v>
+        <v>5511972959.546291</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1526636646813328</v>
+        <v>0.1810342899899013</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02606639360991558</v>
+        <v>0.0303329108914183</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>95</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2339255061.903506</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1762779624.369402</v>
+        <v>2067230469.769753</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09320444449889072</v>
+        <v>0.09510702076146187</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0459548494187927</v>
+        <v>0.04767245628689137</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>881389796.753497</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3131293505.629736</v>
+        <v>2656669531.374537</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0803983786726799</v>
+        <v>0.1059938075670222</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04281487129771521</v>
+        <v>0.05022238565770244</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>99</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1565646736.776632</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3213707640.555768</v>
+        <v>3754654425.75207</v>
       </c>
       <c r="F74" t="n">
-        <v>0.158496051738107</v>
+        <v>0.1402017083254978</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03388735281520618</v>
+        <v>0.02711579555210625</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>88</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1606853867.160049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1687176462.432669</v>
+        <v>2484128983.247699</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1237465007912141</v>
+        <v>0.1179231169048432</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03434775795795493</v>
+        <v>0.03152655855687363</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>843588224.7222497</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5113403601.77377</v>
+        <v>3706227130.239163</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08530413297424434</v>
+        <v>0.08126035145059124</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03025246675221083</v>
+        <v>0.0305471079788682</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2556701832.306246</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1455025466.48301</v>
+        <v>1451866617.928212</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1531843782010861</v>
+        <v>0.1359121479549834</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02938407626700751</v>
+        <v>0.02693818054437104</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>727512714.3092711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3942651438.231639</v>
+        <v>3754441406.383493</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09074428891128121</v>
+        <v>0.1124613202964251</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05226747784460327</v>
+        <v>0.05560535615579986</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>90</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1971325688.960091</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1659122014.840068</v>
+        <v>1420825874.224447</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1170504150362739</v>
+        <v>0.1506996919235653</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03586254157382025</v>
+        <v>0.03531899841650236</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>829561069.4494723</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4051419446.685685</v>
+        <v>3786606070.789033</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08670946396113208</v>
+        <v>0.1020986338669533</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02450985459592159</v>
+        <v>0.02542045030829683</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>54</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2025709725.35857</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3935230248.46527</v>
+        <v>3141224279.118291</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1121535863821154</v>
+        <v>0.1158791262804997</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02019334476473021</v>
+        <v>0.02647355474544055</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>58</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1967615085.03053</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4516155209.830809</v>
+        <v>3473031703.369056</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1932788411251129</v>
+        <v>0.177904085605189</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02797304986746275</v>
+        <v>0.02386946989568453</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>90</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2258077615.859549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2209416338.963967</v>
+        <v>1568680921.756572</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1117617698594826</v>
+        <v>0.1099802451871406</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03373690918836951</v>
+        <v>0.03368946283703084</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1104708180.8524</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2595119821.34793</v>
+        <v>1651565940.112792</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1122887385146974</v>
+        <v>0.08018483512987111</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03448321567293446</v>
+        <v>0.04899792408090715</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1297559828.525995</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3396917537.284126</v>
+        <v>2882966204.922464</v>
       </c>
       <c r="F85" t="n">
-        <v>0.170584522917385</v>
+        <v>0.1444410387096789</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03924881820040329</v>
+        <v>0.03630811625067193</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>98</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1698458872.59744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1845862492.695732</v>
+        <v>2514422660.898316</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1697027542714676</v>
+        <v>0.1149230406426533</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02345596006454603</v>
+        <v>0.02678609069793372</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>34</v>
-      </c>
-      <c r="J86" t="n">
-        <v>922931252.5299245</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1208846734.55211</v>
+        <v>1302933676.497355</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1393089307432837</v>
+        <v>0.1659229325385072</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03681889169091421</v>
+        <v>0.04076447446031055</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>604423425.1162078</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2905959997.810692</v>
+        <v>2957651449.036774</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1608263809893184</v>
+        <v>0.1257977744705333</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02429373701385672</v>
+        <v>0.02479890935153045</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>102</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1452980020.06295</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2570729399.241468</v>
+        <v>2528418913.95286</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1111888097085691</v>
+        <v>0.1535785533664134</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03533443810738507</v>
+        <v>0.03617762820229752</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>88</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1285364769.185702</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2088195396.910709</v>
+        <v>1498722457.075476</v>
       </c>
       <c r="F90" t="n">
-        <v>0.113754484579832</v>
+        <v>0.1349890667830297</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04903451870860908</v>
+        <v>0.03911636073217879</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1044097784.823426</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1772157028.786974</v>
+        <v>1714319180.021006</v>
       </c>
       <c r="F91" t="n">
-        <v>0.153862230309805</v>
+        <v>0.1278697762231159</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04743924197758182</v>
+        <v>0.04902355846399251</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>886078517.0249503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2960813039.431816</v>
+        <v>2946282271.641419</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09350531155954864</v>
+        <v>0.07324660153636367</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03113463858645677</v>
+        <v>0.03660650188780213</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>65</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1480406538.453893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3256892079.442952</v>
+        <v>4099190861.144793</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1400060482321038</v>
+        <v>0.0911162391388031</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03670593334444799</v>
+        <v>0.04881758643156298</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1628446088.394766</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1695594282.814568</v>
+        <v>2144502424.831311</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1319631168219108</v>
+        <v>0.1689347860216602</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0363760377736642</v>
+        <v>0.04164460935620744</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>847797100.1140914</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3205817615.760739</v>
+        <v>2026939284.403401</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09404479162656559</v>
+        <v>0.09320810050812681</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03723713050569079</v>
+        <v>0.04055508501228881</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>63</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1602908792.626437</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1996696654.487058</v>
+        <v>1574067700.277474</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0955940798682488</v>
+        <v>0.1054446429999495</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04709505819925185</v>
+        <v>0.04182906770732201</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>998348314.5631903</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4175830899.855086</v>
+        <v>3697228159.26263</v>
       </c>
       <c r="F97" t="n">
-        <v>0.106599168138224</v>
+        <v>0.1240203811537263</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01806538976106918</v>
+        <v>0.01818184863801747</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>84</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2087915520.43954</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3601043816.260321</v>
+        <v>3710538666.744824</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1132620804972487</v>
+        <v>0.1134656173058948</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02067896525117008</v>
+        <v>0.03076488226560532</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>70</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1800521933.566599</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2727789414.604251</v>
+        <v>2364107442.528414</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09086533107567468</v>
+        <v>0.1459580111655177</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02802732565628166</v>
+        <v>0.02933451714329514</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>81</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1363894673.499193</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4326407742.077917</v>
+        <v>3484426571.78832</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1515524550352321</v>
+        <v>0.157711712668584</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02300778279197327</v>
+        <v>0.02470340413317409</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2163203967.765358</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2174842400.008251</v>
+        <v>2499526057.509014</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1937952835448581</v>
+        <v>0.2039512498758717</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04078791226818364</v>
+        <v>0.0507836173647533</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>104</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1087421179.995269</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_259.xlsx
+++ b/output/fit_clients/fit_round_259.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1677882525.818127</v>
+        <v>1646834607.640096</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1037368035009812</v>
+        <v>0.07470282716787537</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03545342583505081</v>
+        <v>0.03619632608585865</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1673230906.79307</v>
+        <v>2614747218.996464</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1174803084807938</v>
+        <v>0.1659314856971542</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03627333829662409</v>
+        <v>0.04734678989105739</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3335946512.939812</v>
+        <v>5127948222.112295</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1311741433450091</v>
+        <v>0.159915783265182</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03489025974810111</v>
+        <v>0.02993668571746903</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3847766383.977837</v>
+        <v>3763302491.397188</v>
       </c>
       <c r="F5" t="n">
-        <v>0.076805213651404</v>
+        <v>0.07423615558501455</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04910411850761189</v>
+        <v>0.04611181678012433</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2155564190.404684</v>
+        <v>2464784430.841626</v>
       </c>
       <c r="F6" t="n">
-        <v>0.146831530328263</v>
+        <v>0.133167783631827</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03480263345437039</v>
+        <v>0.0546389421114999</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3081021386.344673</v>
+        <v>2748316999.609398</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07608002518437817</v>
+        <v>0.06945142465864503</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04270920922664205</v>
+        <v>0.04271443047791374</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2439315351.395546</v>
+        <v>3040644914.488597</v>
       </c>
       <c r="F8" t="n">
-        <v>0.17626421601523</v>
+        <v>0.2142900472119507</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02667978089281005</v>
+        <v>0.02374285809838355</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2144681375.590424</v>
+        <v>2193283467.495937</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1892691916392057</v>
+        <v>0.1323688071148889</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03706255008242246</v>
+        <v>0.03033562591462374</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4621593527.882479</v>
+        <v>5838646971.175118</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1807757238774937</v>
+        <v>0.1501885934094143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0444230478374241</v>
+        <v>0.04490156319446759</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3699347851.631419</v>
+        <v>4163566126.844625</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1749832755042524</v>
+        <v>0.153869324971498</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03833018350688847</v>
+        <v>0.04957826110679817</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3263934949.818702</v>
+        <v>3129467336.008138</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1924072576512219</v>
+        <v>0.1659119379579825</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04269180395758215</v>
+        <v>0.0425146598184751</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3502686351.534064</v>
+        <v>4371764493.245296</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06864850293427997</v>
+        <v>0.06973849463075679</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03126049251172344</v>
+        <v>0.02218354925064034</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2779826241.752468</v>
+        <v>2528836721.427317</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1324986511556227</v>
+        <v>0.154203296391187</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0409675541386678</v>
+        <v>0.03104923443125511</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1825804487.946914</v>
+        <v>1573350978.480594</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07460045820935733</v>
+        <v>0.08939145291593535</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04224884520420437</v>
+        <v>0.03860773304346927</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2708305167.201993</v>
+        <v>2045041990.70422</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08765047295743597</v>
+        <v>0.1072070768669756</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04654831957035582</v>
+        <v>0.04009790624834223</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4492252364.477757</v>
+        <v>4883419101.781919</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1330458228796443</v>
+        <v>0.1504081146600365</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04504194112573884</v>
+        <v>0.0523124796119001</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3165063181.86967</v>
+        <v>3700980257.953131</v>
       </c>
       <c r="F18" t="n">
-        <v>0.15152519583608</v>
+        <v>0.180699310874723</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03138176342551251</v>
+        <v>0.03413521237297996</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1291515375.784426</v>
+        <v>1038675195.281304</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1378476138410198</v>
+        <v>0.1755137365596622</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0230591692237409</v>
+        <v>0.02073726733629992</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2069174067.107359</v>
+        <v>2341024267.865618</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1111720798492425</v>
+        <v>0.1246065119277174</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02567166455220199</v>
+        <v>0.02888011769124422</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1819421722.737614</v>
+        <v>2533937938.246118</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09222683071399405</v>
+        <v>0.07914884667079694</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0353997617038462</v>
+        <v>0.03089724391857076</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3487405097.690156</v>
+        <v>2800462456.054978</v>
       </c>
       <c r="F22" t="n">
-        <v>0.14151387518337</v>
+        <v>0.1433821236279846</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03824585143255562</v>
+        <v>0.04156450065451459</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1507918696.034095</v>
+        <v>1249688677.061344</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1523822619485291</v>
+        <v>0.1366532358473546</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04848671300013042</v>
+        <v>0.05091030735131299</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3464073857.39199</v>
+        <v>4082633780.398863</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1210674014462366</v>
+        <v>0.1099086621603415</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02538692603562509</v>
+        <v>0.03046958393628946</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1156054858.518436</v>
+        <v>998173315.6270585</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1052274887882486</v>
+        <v>0.09155142595338839</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02168810831396671</v>
+        <v>0.02836180462992209</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1351520845.338122</v>
+        <v>970034545.8938152</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07710284471877681</v>
+        <v>0.09111550653410758</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03444913865338204</v>
+        <v>0.03027780237273069</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3365928117.100854</v>
+        <v>4150472090.587898</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1515789464662123</v>
+        <v>0.1001051831182164</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02481390154249952</v>
+        <v>0.01994639048712014</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2684123113.0669</v>
+        <v>3322673989.271174</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1106383303165144</v>
+        <v>0.1332135359442279</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03392535404410088</v>
+        <v>0.04778652262751264</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4224272786.548596</v>
+        <v>3883621783.858856</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1459545848339747</v>
+        <v>0.1159061811914149</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03920444647948743</v>
+        <v>0.03244176653416671</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2383140369.946957</v>
+        <v>1596790335.294312</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1156463707616031</v>
+        <v>0.1190556077495078</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04011529794994031</v>
+        <v>0.03501200173376352</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>982596225.3689488</v>
+        <v>1183602498.783542</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08302302731299908</v>
+        <v>0.06902143105428994</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03531900274322548</v>
+        <v>0.038771907003799</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1689667759.091315</v>
+        <v>1648752040.763327</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0804194936950995</v>
+        <v>0.1172811733447183</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03078103541451341</v>
+        <v>0.03658901578758199</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2821319972.609267</v>
+        <v>2414961068.165663</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1745441989690117</v>
+        <v>0.1386130319449863</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03757407560552245</v>
+        <v>0.05457315720164176</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1172322888.487057</v>
+        <v>1254608566.503686</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1161179729165566</v>
+        <v>0.1002193713720597</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02500402254741307</v>
+        <v>0.0189114044291337</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1280342861.965064</v>
+        <v>1104189649.831495</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1169703484130512</v>
+        <v>0.08561381600596552</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03901261969526514</v>
+        <v>0.04502910417550457</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2404317762.893853</v>
+        <v>2567229711.658618</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1215769426918084</v>
+        <v>0.1554018427448926</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02882959914194588</v>
+        <v>0.02526297511519615</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1777273630.257979</v>
+        <v>2196185642.63512</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09170803886665821</v>
+        <v>0.09605282635255515</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02850281855740443</v>
+        <v>0.02708504755675274</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1944800542.289386</v>
+        <v>1783154535.99308</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1195236735361771</v>
+        <v>0.09097294583276171</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02771187774613988</v>
+        <v>0.03344314960741225</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1505721593.296512</v>
+        <v>1932245724.997658</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1441691177353166</v>
+        <v>0.1823831463478967</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02506607367744869</v>
+        <v>0.02126481327676621</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1625851874.855683</v>
+        <v>1315778669.134558</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1607707280904692</v>
+        <v>0.1319919161876595</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05424491431516636</v>
+        <v>0.06008633659771143</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2134735106.731781</v>
+        <v>2253505205.500395</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1498767039149873</v>
+        <v>0.1150607087989743</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03766235495833559</v>
+        <v>0.04362743618813261</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3640324208.915052</v>
+        <v>3936521504.951313</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08987760927433568</v>
+        <v>0.1122147347585934</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02891927163232217</v>
+        <v>0.03507195702931987</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2344728821.896674</v>
+        <v>2997369174.164187</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1764762455788104</v>
+        <v>0.1821856731141933</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01787632426953478</v>
+        <v>0.023647086008945</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1465729304.577048</v>
+        <v>2181571545.459176</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1023986832594648</v>
+        <v>0.06912022581327235</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03380836202228892</v>
+        <v>0.02949424513850348</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2076858637.665521</v>
+        <v>1591630048.528255</v>
       </c>
       <c r="F45" t="n">
-        <v>0.124358358658967</v>
+        <v>0.1741200453142553</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04861049427038545</v>
+        <v>0.04612921265348454</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4077328432.091689</v>
+        <v>4552490498.025201</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1113187917545611</v>
+        <v>0.1094128757387189</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05187747335325269</v>
+        <v>0.0417814008495293</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3248240465.773821</v>
+        <v>4761107346.364243</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1261412374930092</v>
+        <v>0.1791220818552618</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04549390059695566</v>
+        <v>0.03701744149003403</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3850291056.292961</v>
+        <v>3522472882.241946</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1045195990875101</v>
+        <v>0.09345086538030847</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02826029797368663</v>
+        <v>0.03620977888004938</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1906224707.210859</v>
+        <v>1668973400.297016</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1279343295375137</v>
+        <v>0.1940041594481349</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03460331100303488</v>
+        <v>0.0319811478065252</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2802334087.814266</v>
+        <v>3302134364.485392</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1155287491657882</v>
+        <v>0.1489843548099058</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04005680259094601</v>
+        <v>0.04328317883459711</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>968790950.6682312</v>
+        <v>1103466737.269934</v>
       </c>
       <c r="F51" t="n">
-        <v>0.178689519510188</v>
+        <v>0.125229656571018</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0347290574552321</v>
+        <v>0.04775113268647412</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5254723689.296151</v>
+        <v>3343885503.219853</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08902589743819862</v>
+        <v>0.1278408159521015</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0424818481051962</v>
+        <v>0.04894775275473485</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3200054940.762707</v>
+        <v>2910406094.389559</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1380256090470099</v>
+        <v>0.1973788045496674</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0283448357711493</v>
+        <v>0.03095314607384763</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3873701201.43628</v>
+        <v>3240910090.223278</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1686178603183632</v>
+        <v>0.1611259895302653</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04869142696794818</v>
+        <v>0.0442054274696934</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4978635185.893066</v>
+        <v>4453379476.959838</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1716904200509862</v>
+        <v>0.1439294440627243</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03200708838227229</v>
+        <v>0.03127327663195471</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1642148799.97434</v>
+        <v>1774918986.398785</v>
       </c>
       <c r="F56" t="n">
-        <v>0.137755899379195</v>
+        <v>0.1231194462831635</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04687772227639678</v>
+        <v>0.04732388022324101</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4559567498.685125</v>
+        <v>3140593998.03749</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1492953964442123</v>
+        <v>0.1191713265188799</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02334131223743074</v>
+        <v>0.02226127998904556</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1675446309.930954</v>
+        <v>1424856828.996643</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1446017440094141</v>
+        <v>0.166615848329602</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0390243883839452</v>
+        <v>0.02936613148935459</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4369490848.133031</v>
+        <v>4078846096.232638</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08227093703811265</v>
+        <v>0.09534894081234918</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03478434275517589</v>
+        <v>0.0347972828081039</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2781709725.946559</v>
+        <v>2897266031.938836</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1994367153549531</v>
+        <v>0.1390887034205527</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03247328604879583</v>
+        <v>0.02514276802570535</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3052047212.902287</v>
+        <v>2100743640.719421</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1315541283235942</v>
+        <v>0.1149656929246535</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02080385325490383</v>
+        <v>0.02032899260107486</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1408411044.516624</v>
+        <v>1354027283.204598</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1290797587491781</v>
+        <v>0.1804370128694106</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04000886243197059</v>
+        <v>0.04155806688612118</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5393982036.095177</v>
+        <v>5092717112.304363</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07383657455257855</v>
+        <v>0.06510571988250494</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04442777247405395</v>
+        <v>0.03211999713373571</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4036415670.256723</v>
+        <v>3901932766.391481</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1436638758476441</v>
+        <v>0.1465488174712837</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03420248707341635</v>
+        <v>0.02428570824680236</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5197898565.215111</v>
+        <v>5652669583.943922</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1117308683264271</v>
+        <v>0.1541936682359004</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02129924426856094</v>
+        <v>0.02962138713765575</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4525817420.813408</v>
+        <v>3934614844.691226</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1332677222931052</v>
+        <v>0.1054074098236735</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0444064193555978</v>
+        <v>0.04945275886459822</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2658230151.290855</v>
+        <v>2481387055.375843</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07975361811786211</v>
+        <v>0.07030646445447389</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04591702384729219</v>
+        <v>0.04058565521134497</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3814869336.638227</v>
+        <v>5161018513.457313</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1532602236243941</v>
+        <v>0.1406555164556699</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03161027769098197</v>
+        <v>0.03189386646319949</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2156725934.7121</v>
+        <v>1560849152.501306</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1443348720229888</v>
+        <v>0.1174082004528512</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04243910367160566</v>
+        <v>0.05022287766799766</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2344914988.914778</v>
+        <v>3679869498.497614</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09561522040240533</v>
+        <v>0.08188172121857616</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04681955208205388</v>
+        <v>0.03587466657084985</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5511972959.546291</v>
+        <v>4858235072.328041</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1810342899899013</v>
+        <v>0.1197461265595419</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0303329108914183</v>
+        <v>0.0210083202308184</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2067230469.769753</v>
+        <v>1917808768.951937</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09510702076146187</v>
+        <v>0.0837891254063523</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04767245628689137</v>
+        <v>0.05082006713557201</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2656669531.374537</v>
+        <v>3209108464.927349</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1059938075670222</v>
+        <v>0.09225081810560891</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05022238565770244</v>
+        <v>0.04970778852194686</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3754654425.75207</v>
+        <v>3063673208.918491</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1402017083254978</v>
+        <v>0.1749289032837597</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02711579555210625</v>
+        <v>0.02479924349363481</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2484128983.247699</v>
+        <v>1641114822.869053</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1179231169048432</v>
+        <v>0.1117503141164525</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03152655855687363</v>
+        <v>0.03292408188994474</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3706227130.239163</v>
+        <v>4569440469.052757</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08126035145059124</v>
+        <v>0.1229854787766065</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0305471079788682</v>
+        <v>0.02756628807288809</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1451866617.928212</v>
+        <v>2166954469.944241</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1359121479549834</v>
+        <v>0.1376796068086766</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02693818054437104</v>
+        <v>0.02086918051960366</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3754441406.383493</v>
+        <v>4597622687.430955</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1124613202964251</v>
+        <v>0.09693636256255792</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05560535615579986</v>
+        <v>0.0552559418052719</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1420825874.224447</v>
+        <v>1538358137.448704</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1506996919235653</v>
+        <v>0.1634975030427869</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03531899841650236</v>
+        <v>0.04020204463965448</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3786606070.789033</v>
+        <v>5040068701.882208</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1020986338669533</v>
+        <v>0.1051825751520863</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02542045030829683</v>
+        <v>0.03771055229055995</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3141224279.118291</v>
+        <v>5191309329.995783</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1158791262804997</v>
+        <v>0.08800569329645856</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02647355474544055</v>
+        <v>0.02129985611814684</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3473031703.369056</v>
+        <v>4684115933.785044</v>
       </c>
       <c r="F82" t="n">
-        <v>0.177904085605189</v>
+        <v>0.1710286395457941</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02386946989568453</v>
+        <v>0.02605285868741009</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1568680921.756572</v>
+        <v>1942410168.327559</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1099802451871406</v>
+        <v>0.1484457107494045</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03368946283703084</v>
+        <v>0.04020518424024373</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1651565940.112792</v>
+        <v>1767670175.073011</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08018483512987111</v>
+        <v>0.07593798006672628</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04899792408090715</v>
+        <v>0.04334048279127622</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2882966204.922464</v>
+        <v>2991547621.788098</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1444410387096789</v>
+        <v>0.1524099217449076</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03630811625067193</v>
+        <v>0.04382152819710086</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2514422660.898316</v>
+        <v>2117396602.156006</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1149230406426533</v>
+        <v>0.1679818024542149</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02678609069793372</v>
+        <v>0.02016168361438108</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1302933676.497355</v>
+        <v>1100083064.825693</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1659229325385072</v>
+        <v>0.1648573771505185</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04076447446031055</v>
+        <v>0.0308310813522202</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2957651449.036774</v>
+        <v>3343764799.617767</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1257977744705333</v>
+        <v>0.1577859021756214</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02479890935153045</v>
+        <v>0.03744353232351184</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2528418913.95286</v>
+        <v>2728357007.662025</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1535785533664134</v>
+        <v>0.1285385526641032</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03617762820229752</v>
+        <v>0.03053779484959675</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1498722457.075476</v>
+        <v>1430592789.710241</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1349890667830297</v>
+        <v>0.1225637684744057</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03911636073217879</v>
+        <v>0.04373790365512119</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1714319180.021006</v>
+        <v>1941456689.13827</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1278697762231159</v>
+        <v>0.1730418305374379</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04902355846399251</v>
+        <v>0.05061403188798567</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2946282271.641419</v>
+        <v>2430876933.783362</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07324660153636367</v>
+        <v>0.07450931190000652</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03660650188780213</v>
+        <v>0.03260498906247009</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4099190861.144793</v>
+        <v>3893001631.845215</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0911162391388031</v>
+        <v>0.1382632571050186</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04881758643156298</v>
+        <v>0.03423838881760711</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2144502424.831311</v>
+        <v>1795819756.963784</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1689347860216602</v>
+        <v>0.160707629176173</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04164460935620744</v>
+        <v>0.03742110840318308</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2026939284.403401</v>
+        <v>3129071024.822511</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09320810050812681</v>
+        <v>0.1200591547877039</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04055508501228881</v>
+        <v>0.04775070269495393</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1574067700.277474</v>
+        <v>2277453057.67502</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1054446429999495</v>
+        <v>0.09691139577844538</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04182906770732201</v>
+        <v>0.0287160945170226</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3697228159.26263</v>
+        <v>4492094703.730242</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1240203811537263</v>
+        <v>0.1409657576307719</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01818184863801747</v>
+        <v>0.02434884203678497</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3710538666.744824</v>
+        <v>3088287364.057311</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1134656173058948</v>
+        <v>0.1274095151378218</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03076488226560532</v>
+        <v>0.03066067009124706</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2364107442.528414</v>
+        <v>3327568358.40817</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1459580111655177</v>
+        <v>0.1058224263099506</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02933451714329514</v>
+        <v>0.0311894409037127</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3484426571.78832</v>
+        <v>3556907835.685355</v>
       </c>
       <c r="F100" t="n">
-        <v>0.157711712668584</v>
+        <v>0.1158450705578706</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02470340413317409</v>
+        <v>0.02490404828856313</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2499526057.509014</v>
+        <v>3102171517.56545</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2039512498758717</v>
+        <v>0.2129255058093436</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0507836173647533</v>
+        <v>0.0452107329786104</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_259.xlsx
+++ b/output/fit_clients/fit_round_259.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1646834607.640096</v>
+        <v>2096997478.402533</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07470282716787537</v>
+        <v>0.0866072227402595</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03619632608585865</v>
+        <v>0.02894136324516233</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2614747218.996464</v>
+        <v>1739719442.643906</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1659314856971542</v>
+        <v>0.1703590176852491</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04734678989105739</v>
+        <v>0.04347909235460058</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5127948222.112295</v>
+        <v>4532703866.759129</v>
       </c>
       <c r="F4" t="n">
-        <v>0.159915783265182</v>
+        <v>0.1172799924429408</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02993668571746903</v>
+        <v>0.03798171606172633</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>139</v>
+      </c>
+      <c r="J4" t="n">
+        <v>259</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3763302491.397188</v>
+        <v>3636703825.147166</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07423615558501455</v>
+        <v>0.09699261719238834</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04611181678012433</v>
+        <v>0.0327017128513141</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>107</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2464784430.841626</v>
+        <v>2006676407.627078</v>
       </c>
       <c r="F6" t="n">
-        <v>0.133167783631827</v>
+        <v>0.1356224515847564</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0546389421114999</v>
+        <v>0.05406365726846177</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2748316999.609398</v>
+        <v>2496631480.036686</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06945142465864503</v>
+        <v>0.09452331424489287</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04271443047791374</v>
+        <v>0.0366046517321781</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3040644914.488597</v>
+        <v>3155491404.397383</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2142900472119507</v>
+        <v>0.1746982566181123</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02374285809838355</v>
+        <v>0.02470535685292183</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2193283467.495937</v>
+        <v>2095268801.458312</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1323688071148889</v>
+        <v>0.1508976735386538</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03033562591462374</v>
+        <v>0.02352063520937717</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5838646971.175118</v>
+        <v>4968425141.90702</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1501885934094143</v>
+        <v>0.2035962861904631</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04490156319446759</v>
+        <v>0.04396829394055383</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>234</v>
+      </c>
+      <c r="J10" t="n">
+        <v>259</v>
+      </c>
+      <c r="K10" t="n">
+        <v>103.1607060298576</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +818,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4163566126.844625</v>
+        <v>2976755398.738843</v>
       </c>
       <c r="F11" t="n">
-        <v>0.153869324971498</v>
+        <v>0.1440734654836751</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04957826110679817</v>
+        <v>0.04039100741337123</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>105</v>
+      </c>
+      <c r="J11" t="n">
+        <v>257</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3129467336.008138</v>
+        <v>3156892516.427402</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1659119379579825</v>
+        <v>0.1498935353442643</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0425146598184751</v>
+        <v>0.03993774628419225</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +888,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4371764493.245296</v>
+        <v>3627365507.155199</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06973849463075679</v>
+        <v>0.09160060138573656</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02218354925064034</v>
+        <v>0.02845590406108714</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>131</v>
+      </c>
+      <c r="J13" t="n">
+        <v>259</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2528836721.427317</v>
+        <v>2821411244.326856</v>
       </c>
       <c r="F14" t="n">
-        <v>0.154203296391187</v>
+        <v>0.1556895691141569</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03104923443125511</v>
+        <v>0.04272042097099273</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>51</v>
+      </c>
+      <c r="J14" t="n">
+        <v>253</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1573350978.480594</v>
+        <v>1258268165.842809</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08939145291593535</v>
+        <v>0.08518984354452963</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03860773304346927</v>
+        <v>0.03854529217343709</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +993,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2045041990.70422</v>
+        <v>1856554928.7586</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1072070768669756</v>
+        <v>0.07063007391169183</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04009790624834223</v>
+        <v>0.0490908853126407</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4883419101.781919</v>
+        <v>4219868637.048186</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1504081146600365</v>
+        <v>0.1319081124619711</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0523124796119001</v>
+        <v>0.04644546765869934</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>124</v>
+      </c>
+      <c r="J17" t="n">
+        <v>258</v>
+      </c>
+      <c r="K17" t="n">
+        <v>91.72382320086565</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3700980257.953131</v>
+        <v>2883228763.003872</v>
       </c>
       <c r="F18" t="n">
-        <v>0.180699310874723</v>
+        <v>0.1525330497814916</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03413521237297996</v>
+        <v>0.03054447659810807</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>64</v>
+      </c>
+      <c r="J18" t="n">
+        <v>254</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1038675195.281304</v>
+        <v>1327723236.698382</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1755137365596622</v>
+        <v>0.1695587326909463</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02073726733629992</v>
+        <v>0.01700279274884074</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2341024267.865618</v>
+        <v>1727107386.204691</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1246065119277174</v>
+        <v>0.1235880534295168</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02888011769124422</v>
+        <v>0.01944324437821129</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2533937938.246118</v>
+        <v>2726681029.873394</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07914884667079694</v>
+        <v>0.06431012282027973</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03089724391857076</v>
+        <v>0.04371179434467206</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1205,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2800462456.054978</v>
+        <v>3145105170.587235</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1433821236279846</v>
+        <v>0.1204241721368443</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04156450065451459</v>
+        <v>0.03489760386333617</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>67</v>
+      </c>
+      <c r="J22" t="n">
+        <v>256</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1249688677.061344</v>
+        <v>1475585591.921363</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1366532358473546</v>
+        <v>0.1721122052922871</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05091030735131299</v>
+        <v>0.03361865847389062</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1275,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4082633780.398863</v>
+        <v>3704727752.928866</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1099086621603415</v>
+        <v>0.09698044108901198</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03046958393628946</v>
+        <v>0.03759811013340647</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>77</v>
+      </c>
+      <c r="J24" t="n">
+        <v>259</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1310,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>998173315.6270585</v>
+        <v>1109360594.503354</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09155142595338839</v>
+        <v>0.1033565911878902</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02836180462992209</v>
+        <v>0.02262224068146293</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>970034545.8938152</v>
+        <v>1160776581.498685</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09111550653410758</v>
+        <v>0.1207678459392041</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03027780237273069</v>
+        <v>0.02481895268451285</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4150472090.587898</v>
+        <v>3957675036.581575</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1001051831182164</v>
+        <v>0.1036711373417819</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01994639048712014</v>
+        <v>0.01922559252306033</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>105</v>
+      </c>
+      <c r="J27" t="n">
+        <v>259</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1409,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3322673989.271174</v>
+        <v>3713356192.544646</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1332135359442279</v>
+        <v>0.09652535599216243</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04778652262751264</v>
+        <v>0.04510083344017209</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>52</v>
+      </c>
+      <c r="J28" t="n">
+        <v>258</v>
+      </c>
+      <c r="K28" t="n">
+        <v>94.0263044358211</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3883621783.858856</v>
+        <v>5487899261.36565</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1159061811914149</v>
+        <v>0.1390388756728066</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03244176653416671</v>
+        <v>0.0301033617067227</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>247</v>
+      </c>
+      <c r="J29" t="n">
+        <v>259</v>
+      </c>
+      <c r="K29" t="n">
+        <v>103.4086496671834</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1596790335.294312</v>
+        <v>1798551851.328831</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1190556077495078</v>
+        <v>0.08596679977269669</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03501200173376352</v>
+        <v>0.033907775107924</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1183602498.783542</v>
+        <v>1045262017.475749</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06902143105428994</v>
+        <v>0.08757736910941526</v>
       </c>
       <c r="G31" t="n">
-        <v>0.038771907003799</v>
+        <v>0.0460647730349855</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1648752040.763327</v>
+        <v>1161279721.840489</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1172811733447183</v>
+        <v>0.108672171290375</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03658901578758199</v>
+        <v>0.03572911249400918</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2414961068.165663</v>
+        <v>2943391217.362403</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1386130319449863</v>
+        <v>0.1299628212521174</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05457315720164176</v>
+        <v>0.04108055554387836</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1254608566.503686</v>
+        <v>947201808.5401025</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1002193713720597</v>
+        <v>0.08570012936590034</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0189114044291337</v>
+        <v>0.02818251914052273</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1104189649.831495</v>
+        <v>1343979338.317325</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08561381600596552</v>
+        <v>0.0878444751367698</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04502910417550457</v>
+        <v>0.02841186255906272</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2567229711.658618</v>
+        <v>2205033213.319624</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1554018427448926</v>
+        <v>0.1147388662861138</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02526297511519615</v>
+        <v>0.02562019871021015</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2196185642.63512</v>
+        <v>2401140099.935787</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09605282635255515</v>
+        <v>0.0760703312224299</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02708504755675274</v>
+        <v>0.03621250027869519</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1783154535.99308</v>
+        <v>1995402853.948216</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09097294583276171</v>
+        <v>0.1063142245014368</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03344314960741225</v>
+        <v>0.02581536568526825</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1932245724.997658</v>
+        <v>2155994517.310144</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1823831463478967</v>
+        <v>0.181276792252602</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02126481327676621</v>
+        <v>0.0236093211315177</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1315778669.134558</v>
+        <v>1142209285.649268</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1319919161876595</v>
+        <v>0.104763548644825</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06008633659771143</v>
+        <v>0.04210891361346604</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2253505205.500395</v>
+        <v>2763053590.255752</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1150607087989743</v>
+        <v>0.1322766716224592</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04362743618813261</v>
+        <v>0.04014008626615174</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3936521504.951313</v>
+        <v>3268229331.160009</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1122147347585934</v>
+        <v>0.1274019210955926</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03507195702931987</v>
+        <v>0.03557997736081187</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>108</v>
+      </c>
+      <c r="J42" t="n">
+        <v>258</v>
+      </c>
+      <c r="K42" t="n">
+        <v>73.81721705683314</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2997369174.164187</v>
+        <v>2749631140.903033</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1821856731141933</v>
+        <v>0.1297715199014165</v>
       </c>
       <c r="G43" t="n">
-        <v>0.023647086008945</v>
+        <v>0.02151265647106112</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2181571545.459176</v>
+        <v>2058808996.804945</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06912022581327235</v>
+        <v>0.07512885849448978</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02949424513850348</v>
+        <v>0.03632820339904784</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1591630048.528255</v>
+        <v>1904098410.912752</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1741200453142553</v>
+        <v>0.1716705332334733</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04612921265348454</v>
+        <v>0.05012098804262636</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4552490498.025201</v>
+        <v>4152719273.379758</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1094128757387189</v>
+        <v>0.1729072032329971</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0417814008495293</v>
+        <v>0.04889784867532821</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>150</v>
+      </c>
+      <c r="J46" t="n">
+        <v>259</v>
+      </c>
+      <c r="K46" t="n">
+        <v>101.5227400905966</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4761107346.364243</v>
+        <v>3217932141.536226</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1791220818552618</v>
+        <v>0.1296552537321173</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03701744149003403</v>
+        <v>0.03767467053926535</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>117</v>
+      </c>
+      <c r="J47" t="n">
+        <v>258</v>
+      </c>
+      <c r="K47" t="n">
+        <v>55.46386812734803</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3522472882.241946</v>
+        <v>2854081313.001749</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09345086538030847</v>
+        <v>0.1046831593834537</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03620977888004938</v>
+        <v>0.03448106530440542</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>128</v>
+      </c>
+      <c r="J48" t="n">
+        <v>257</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1668973400.297016</v>
+        <v>1248269271.441159</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1940041594481349</v>
+        <v>0.1601927047690326</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0319811478065252</v>
+        <v>0.04342277870264492</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3302134364.485392</v>
+        <v>3130554427.670586</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1489843548099058</v>
+        <v>0.1428487781425229</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04328317883459711</v>
+        <v>0.03359528378962346</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>254</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1103466737.269934</v>
+        <v>1299434800.854907</v>
       </c>
       <c r="F51" t="n">
-        <v>0.125229656571018</v>
+        <v>0.1201226209626685</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04775113268647412</v>
+        <v>0.04375507658322881</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3343885503.219853</v>
+        <v>3693136338.454107</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1278408159521015</v>
+        <v>0.1180288543355896</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04894775275473485</v>
+        <v>0.04967224842033597</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>165</v>
+      </c>
+      <c r="J52" t="n">
+        <v>259</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2910406094.389559</v>
+        <v>3345838682.157785</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1973788045496674</v>
+        <v>0.1804793225959354</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03095314607384763</v>
+        <v>0.03364476531317447</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>35</v>
+      </c>
+      <c r="J53" t="n">
+        <v>259</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3240910090.223278</v>
+        <v>3241145111.962749</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1611259895302653</v>
+        <v>0.1253939298232551</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0442054274696934</v>
+        <v>0.04715305610511888</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>137</v>
+      </c>
+      <c r="J54" t="n">
+        <v>258</v>
+      </c>
+      <c r="K54" t="n">
+        <v>66.34581586844637</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4453379476.959838</v>
+        <v>3218714743.484657</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1439294440627243</v>
+        <v>0.1903139289692022</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03127327663195471</v>
+        <v>0.02801181002416251</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>116</v>
+      </c>
+      <c r="J55" t="n">
+        <v>258</v>
+      </c>
+      <c r="K55" t="n">
+        <v>66.10896167720675</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1774918986.398785</v>
+        <v>1474312922.780531</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1231194462831635</v>
+        <v>0.1390438579126528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04732388022324101</v>
+        <v>0.05371331686330606</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3140593998.03749</v>
+        <v>4286993983.174392</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1191713265188799</v>
+        <v>0.1326037904748905</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02226127998904556</v>
+        <v>0.02544125438053415</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>104</v>
+      </c>
+      <c r="J57" t="n">
+        <v>258</v>
+      </c>
+      <c r="K57" t="n">
+        <v>97.27350303138657</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1424856828.996643</v>
+        <v>1181531521.224922</v>
       </c>
       <c r="F58" t="n">
-        <v>0.166615848329602</v>
+        <v>0.1641540454439577</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02936613148935459</v>
+        <v>0.02547930896202439</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4078846096.232638</v>
+        <v>4000438428.08497</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09534894081234918</v>
+        <v>0.1088821335638541</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0347972828081039</v>
+        <v>0.04697656939432313</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>125</v>
+      </c>
+      <c r="J59" t="n">
+        <v>258</v>
+      </c>
+      <c r="K59" t="n">
+        <v>92.05977954021922</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2897266031.938836</v>
+        <v>3021097023.844469</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1390887034205527</v>
+        <v>0.1570285460443734</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02514276802570535</v>
+        <v>0.02994072674348757</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>37</v>
+      </c>
+      <c r="J60" t="n">
+        <v>248</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2100743640.719421</v>
+        <v>3229544633.263718</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1149656929246535</v>
+        <v>0.1778437682352206</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02032899260107486</v>
+        <v>0.02061393310174602</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1354027283.204598</v>
+        <v>1318175774.236357</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1804370128694106</v>
+        <v>0.1882310059281285</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04155806688612118</v>
+        <v>0.04403681345674884</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5092717112.304363</v>
+        <v>3946153660.512374</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06510571988250494</v>
+        <v>0.1050759656685737</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03211999713373571</v>
+        <v>0.04620800720066535</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>126</v>
+      </c>
+      <c r="J63" t="n">
+        <v>259</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3901932766.391481</v>
+        <v>4298797483.984941</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1465488174712837</v>
+        <v>0.1647104894559804</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02428570824680236</v>
+        <v>0.02782979411684708</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>127</v>
+      </c>
+      <c r="J64" t="n">
+        <v>259</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5652669583.943922</v>
+        <v>4120890040.285509</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1541936682359004</v>
+        <v>0.1643936960509125</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02962138713765575</v>
+        <v>0.02389297323003615</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>207</v>
+      </c>
+      <c r="J65" t="n">
+        <v>259</v>
+      </c>
+      <c r="K65" t="n">
+        <v>99.80663327975334</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3934614844.691226</v>
+        <v>3487409956.095494</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1054074098236735</v>
+        <v>0.1538039282210455</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04945275886459822</v>
+        <v>0.03123889467632888</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>128</v>
+      </c>
+      <c r="J66" t="n">
+        <v>258</v>
+      </c>
+      <c r="K66" t="n">
+        <v>69.36649933373988</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2796,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2481387055.375843</v>
+        <v>2484027722.596153</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07030646445447389</v>
+        <v>0.06674894584200551</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04058565521134497</v>
+        <v>0.03508305874256005</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="n">
+        <v>44.16653402795081</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5161018513.457313</v>
+        <v>5772111448.642805</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1406555164556699</v>
+        <v>0.1484256457345943</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03189386646319949</v>
+        <v>0.04952411886427966</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>132</v>
+      </c>
+      <c r="J68" t="n">
+        <v>258</v>
+      </c>
+      <c r="K68" t="n">
+        <v>97.53748004321932</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1560849152.501306</v>
+        <v>2343812102.848608</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1174082004528512</v>
+        <v>0.1633562854273472</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05022287766799766</v>
+        <v>0.05851080101895301</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3679869498.497614</v>
+        <v>3070322487.552691</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08188172121857616</v>
+        <v>0.1015833999905216</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03587466657084985</v>
+        <v>0.03580298851826874</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4858235072.328041</v>
+        <v>3822987548.065816</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1197461265595419</v>
+        <v>0.1820905518412776</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0210083202308184</v>
+        <v>0.02482619505626218</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>195</v>
+      </c>
+      <c r="J71" t="n">
+        <v>259</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1917808768.951937</v>
+        <v>1720882759.40102</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0837891254063523</v>
+        <v>0.07806607651847015</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05082006713557201</v>
+        <v>0.03893099910377235</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3209108464.927349</v>
+        <v>2978532638.331597</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09225081810560891</v>
+        <v>0.09026274717954906</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04970778852194686</v>
+        <v>0.04597830395752026</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3063673208.918491</v>
+        <v>2773801985.8445</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1749289032837597</v>
+        <v>0.1358081795964034</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02479924349363481</v>
+        <v>0.02579783851436956</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>73</v>
+      </c>
+      <c r="J74" t="n">
+        <v>254</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1641114822.869053</v>
+        <v>1990871133.862382</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1117503141164525</v>
+        <v>0.1035216677630432</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03292408188994474</v>
+        <v>0.03037824531646196</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4569440469.052757</v>
+        <v>5015710433.392179</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1229854787766065</v>
+        <v>0.102506045424537</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02756628807288809</v>
+        <v>0.03131579455376643</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>121</v>
+      </c>
+      <c r="J76" t="n">
+        <v>258</v>
+      </c>
+      <c r="K76" t="n">
+        <v>90.0551821417897</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2166954469.944241</v>
+        <v>1972776832.504021</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1376796068086766</v>
+        <v>0.1823705419128391</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02086918051960366</v>
+        <v>0.02061867358960616</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4597622687.430955</v>
+        <v>4795398153.977313</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09693636256255792</v>
+        <v>0.08413308316883776</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0552559418052719</v>
+        <v>0.04146829268902062</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>130</v>
+      </c>
+      <c r="J78" t="n">
+        <v>258</v>
+      </c>
+      <c r="K78" t="n">
+        <v>98.76027500127201</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1538358137.448704</v>
+        <v>1832557499.271574</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1634975030427869</v>
+        <v>0.1165798051970951</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04020204463965448</v>
+        <v>0.03657548093489318</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5040068701.882208</v>
+        <v>5306008323.629638</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1051825751520863</v>
+        <v>0.08979518863293286</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03771055229055995</v>
+        <v>0.02699554056237282</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>126</v>
+      </c>
+      <c r="J80" t="n">
+        <v>259</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5191309329.995783</v>
+        <v>3689864575.063072</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08800569329645856</v>
+        <v>0.1258039078041817</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02129985611814684</v>
+        <v>0.02566937153128694</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>118</v>
+      </c>
+      <c r="J81" t="n">
+        <v>259</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4684115933.785044</v>
+        <v>5466295357.812069</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1710286395457941</v>
+        <v>0.1818500750681407</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02605285868741009</v>
+        <v>0.02088971966355544</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>195</v>
+      </c>
+      <c r="J82" t="n">
+        <v>259</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1942410168.327559</v>
+        <v>2419303111.15169</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1484457107494045</v>
+        <v>0.1026140697822821</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04020518424024373</v>
+        <v>0.03966083673019847</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1767670175.073011</v>
+        <v>2547596434.728843</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07593798006672628</v>
+        <v>0.07915240838756749</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04334048279127622</v>
+        <v>0.03887902201181209</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2991547621.788098</v>
+        <v>2777073549.691336</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1524099217449076</v>
+        <v>0.1747181939080361</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04382152819710086</v>
+        <v>0.03825196189592535</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2117396602.156006</v>
+        <v>2810735061.61649</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1679818024542149</v>
+        <v>0.1453416550449126</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02016168361438108</v>
+        <v>0.01912353629248579</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1100083064.825693</v>
+        <v>956416777.8694876</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1648573771505185</v>
+        <v>0.1161296780490352</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0308310813522202</v>
+        <v>0.04219687385097927</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3343764799.617767</v>
+        <v>2817589899.906773</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1577859021756214</v>
+        <v>0.1569739769176079</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03744353232351184</v>
+        <v>0.03177832624764554</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2728357007.662025</v>
+        <v>2926296610.284588</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1285385526641032</v>
+        <v>0.1352654315478346</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03053779484959675</v>
+        <v>0.02826937537726735</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="n">
+        <v>64.60575494644195</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1430592789.710241</v>
+        <v>1601841257.722524</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1225637684744057</v>
+        <v>0.1173236275099127</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04373790365512119</v>
+        <v>0.03859191004213245</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1941456689.13827</v>
+        <v>2025909108.490669</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1730418305374379</v>
+        <v>0.1324982404732341</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05061403188798567</v>
+        <v>0.04164258541767872</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2430876933.783362</v>
+        <v>2816353914.266903</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07450931190000652</v>
+        <v>0.08296621000327233</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03260498906247009</v>
+        <v>0.03649379021903602</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3893001631.845215</v>
+        <v>3116838104.172132</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1382632571050186</v>
+        <v>0.1311017179210656</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03423838881760711</v>
+        <v>0.05488970374055204</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>114</v>
+      </c>
+      <c r="J93" t="n">
+        <v>257</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1795819756.963784</v>
+        <v>1790829756.269468</v>
       </c>
       <c r="F94" t="n">
-        <v>0.160707629176173</v>
+        <v>0.1642871960080825</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03742110840318308</v>
+        <v>0.0430222850702364</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3129071024.822511</v>
+        <v>2710927577.363441</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1200591547877039</v>
+        <v>0.1381708891716051</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04775070269495393</v>
+        <v>0.04837553546229021</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2277453057.67502</v>
+        <v>1653216472.188772</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09691139577844538</v>
+        <v>0.08716217016845652</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0287160945170226</v>
+        <v>0.03298692235748356</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4492094703.730242</v>
+        <v>3938516095.558928</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1409657576307719</v>
+        <v>0.1559467126534984</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02434884203678497</v>
+        <v>0.02360196557675392</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>127</v>
+      </c>
+      <c r="J97" t="n">
+        <v>259</v>
+      </c>
+      <c r="K97" t="n">
+        <v>100.3921547929483</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3088287364.057311</v>
+        <v>2382159650.083212</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1274095151378218</v>
+        <v>0.08898879794638612</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03066067009124706</v>
+        <v>0.03274098796955352</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>63</v>
+      </c>
+      <c r="J98" t="n">
+        <v>256</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3327568358.40817</v>
+        <v>2382122366.670549</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1058224263099506</v>
+        <v>0.1182146324411045</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0311894409037127</v>
+        <v>0.02687377969170912</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>252</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3556907835.685355</v>
+        <v>3413259154.024252</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1158450705578706</v>
+        <v>0.1402213366436941</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02490404828856313</v>
+        <v>0.02587446035813087</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>109</v>
+      </c>
+      <c r="J100" t="n">
+        <v>258</v>
+      </c>
+      <c r="K100" t="n">
+        <v>74.33623939372804</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3102171517.56545</v>
+        <v>3537616416.973026</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2129255058093436</v>
+        <v>0.165061667821372</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0452107329786104</v>
+        <v>0.05416679787985714</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>259</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
